--- a/Timekeeping/2024/08-24/JOSEPH R 08-24.xlsx
+++ b/Timekeeping/2024/08-24/JOSEPH R 08-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\08-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00D19A5-5167-4470-9081-E4AFCE420BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B00D19A5-5167-4470-9081-E4AFCE420BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04B757E0-7CEC-4364-AC3E-25CF5795A05B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="990" windowWidth="12110" windowHeight="17220" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$AJ$41</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="67">
   <si>
     <t>NAME</t>
   </si>
@@ -213,9 +226,6 @@
   </si>
   <si>
     <t>Quadreal - Maplewood</t>
-  </si>
-  <si>
-    <t>DP</t>
   </si>
   <si>
     <t>2403</t>
@@ -1214,7 +1224,7 @@
   <dimension ref="A1:GH120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2502,7 +2512,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ11" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -2869,7 +2879,7 @@
         <v>62</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="79"/>
@@ -3188,10 +3198,10 @@
     </row>
     <row r="16" spans="1:190" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>65</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>47</v>
@@ -3252,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="AJ16" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
